--- a/parabolic/2025/07/23/parabolic.xlsx
+++ b/parabolic/2025/07/23/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>226</v>
       </c>
       <c r="D2" t="n">
-        <v>6992800</v>
+        <v>7425500</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3101</t>
+          <t>2440</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>959</v>
+        <v>256</v>
       </c>
       <c r="D3" t="n">
-        <v>182700</v>
+        <v>303000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>4168</t>
+          <t>3101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>838</v>
+        <v>967</v>
       </c>
       <c r="D4" t="n">
-        <v>108600</v>
+        <v>328400</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>5202</t>
+          <t>3137</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>496</v>
+        <v>435</v>
       </c>
       <c r="D5" t="n">
-        <v>1128000</v>
+        <v>1378700</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6366</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>332</v>
+        <v>844</v>
       </c>
       <c r="D6" t="n">
-        <v>810300</v>
+        <v>160300</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6464</t>
+          <t>5202</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>361</v>
+        <v>492</v>
       </c>
       <c r="D7" t="n">
-        <v>182800</v>
+        <v>1483800</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>6471</t>
+          <t>6118</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>717.7999877929688</v>
+        <v>913</v>
       </c>
       <c r="D8" t="n">
-        <v>1335000</v>
+        <v>107900</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6472</t>
+          <t>6366</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="D9" t="n">
-        <v>2984000</v>
+        <v>2101600</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6999</t>
+          <t>6464</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>861</v>
+        <v>360</v>
       </c>
       <c r="D10" t="n">
-        <v>132800</v>
+        <v>263900</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>7201</t>
+          <t>6471</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>328.1000061035156</v>
+        <v>720.5</v>
       </c>
       <c r="D11" t="n">
-        <v>55751200</v>
+        <v>2634700</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>7211</t>
+          <t>6472</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>443.3999938964844</v>
+        <v>255.8999938964844</v>
       </c>
       <c r="D12" t="n">
-        <v>14410600</v>
+        <v>4417300</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7238</t>
+          <t>6753</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>113</v>
+        <v>686.7999877929688</v>
       </c>
       <c r="D13" t="n">
-        <v>2530800</v>
+        <v>1776000</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>7241</t>
+          <t>6999</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>826</v>
+        <v>864</v>
       </c>
       <c r="D14" t="n">
-        <v>174600</v>
+        <v>221100</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>7244</t>
+          <t>7180</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>389</v>
+        <v>785.5</v>
       </c>
       <c r="D15" t="n">
-        <v>107400</v>
+        <v>729600</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>7261</t>
+          <t>7201</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>991.7000122070312</v>
+        <v>331.5</v>
       </c>
       <c r="D16" t="n">
-        <v>22819800</v>
+        <v>87004900</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>7727</t>
+          <t>7211</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>468</v>
+        <v>439.5</v>
       </c>
       <c r="D17" t="n">
-        <v>197000</v>
+        <v>20457400</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>8604</t>
+          <t>7238</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,16 +850,269 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>968.5</v>
+        <v>110</v>
       </c>
       <c r="D18" t="n">
-        <v>5529400</v>
+        <v>9906100</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>7241</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>835</v>
+      </c>
+      <c r="D19" t="n">
+        <v>314800</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>7244</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>386</v>
+      </c>
+      <c r="D20" t="n">
+        <v>184600</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>7261</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>993.9000244140625</v>
+      </c>
+      <c r="D21" t="n">
+        <v>41889600</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>7291</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>367</v>
+      </c>
+      <c r="D22" t="n">
+        <v>118300</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>7727</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>469</v>
+      </c>
+      <c r="D23" t="n">
+        <v>279000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>7740</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>908</v>
+      </c>
+      <c r="D24" t="n">
+        <v>306200</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>7908</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>234</v>
+      </c>
+      <c r="D25" t="n">
+        <v>209400</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>8254</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>497</v>
+      </c>
+      <c r="D26" t="n">
+        <v>158500</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>8410</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>274</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4497400</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>8604</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>978.4000244140625</v>
+      </c>
+      <c r="D28" t="n">
+        <v>9218200</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>9227</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>525</v>
+      </c>
+      <c r="D29" t="n">
+        <v>107500</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/23/parabolic.xlsx
+++ b/parabolic/2025/07/23/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2342</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>226</v>
+        <v>294</v>
       </c>
       <c r="D2" t="n">
-        <v>7425500</v>
+        <v>105500</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2342</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="D3" t="n">
-        <v>303000</v>
+        <v>7425500</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3101</t>
+          <t>2440</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>967</v>
+        <v>254</v>
       </c>
       <c r="D4" t="n">
-        <v>328400</v>
+        <v>376700</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3137</t>
+          <t>3101</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>435</v>
+        <v>960</v>
       </c>
       <c r="D5" t="n">
-        <v>1378700</v>
+        <v>393100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4168</t>
+          <t>3137</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>844</v>
+        <v>477</v>
       </c>
       <c r="D6" t="n">
-        <v>160300</v>
+        <v>3978200</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>5202</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>492</v>
+        <v>559</v>
       </c>
       <c r="D7" t="n">
-        <v>1483800</v>
+        <v>156400</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>6118</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>913</v>
+        <v>861</v>
       </c>
       <c r="D8" t="n">
-        <v>107900</v>
+        <v>243400</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6366</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>345</v>
+        <v>499</v>
       </c>
       <c r="D9" t="n">
-        <v>2101600</v>
+        <v>113300</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6464</t>
+          <t>4288</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>360</v>
+        <v>588</v>
       </c>
       <c r="D10" t="n">
-        <v>263900</v>
+        <v>257400</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>6471</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>720.5</v>
+        <v>838</v>
       </c>
       <c r="D11" t="n">
-        <v>2634700</v>
+        <v>191500</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6472</t>
+          <t>5202</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>255.8999938964844</v>
+        <v>490</v>
       </c>
       <c r="D12" t="n">
-        <v>4417300</v>
+        <v>1667200</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>6753</t>
+          <t>5258</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>686.7999877929688</v>
+        <v>438</v>
       </c>
       <c r="D13" t="n">
-        <v>1776000</v>
+        <v>113000</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>6999</t>
+          <t>5476</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>864</v>
+        <v>413</v>
       </c>
       <c r="D14" t="n">
-        <v>221100</v>
+        <v>122300</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>7180</t>
+          <t>6118</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>785.5</v>
+        <v>917</v>
       </c>
       <c r="D15" t="n">
-        <v>729600</v>
+        <v>139300</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>7201</t>
+          <t>6366</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>331.5</v>
+        <v>345</v>
       </c>
       <c r="D16" t="n">
-        <v>87004900</v>
+        <v>3138500</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>7211</t>
+          <t>6464</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>439.5</v>
+        <v>360</v>
       </c>
       <c r="D17" t="n">
-        <v>20457400</v>
+        <v>398000</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>7238</t>
+          <t>6471</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>110</v>
+        <v>718</v>
       </c>
       <c r="D18" t="n">
-        <v>9906100</v>
+        <v>3549200</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>7241</t>
+          <t>6472</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>835</v>
+        <v>253.1000061035156</v>
       </c>
       <c r="D19" t="n">
-        <v>314800</v>
+        <v>5221100</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>7244</t>
+          <t>6753</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>386</v>
+        <v>682.4000244140625</v>
       </c>
       <c r="D20" t="n">
-        <v>184600</v>
+        <v>2507100</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>7261</t>
+          <t>6999</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>993.9000244140625</v>
+        <v>872</v>
       </c>
       <c r="D21" t="n">
-        <v>41889600</v>
+        <v>309100</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>7291</t>
+          <t>7180</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>367</v>
+        <v>781.5999755859375</v>
       </c>
       <c r="D22" t="n">
-        <v>118300</v>
+        <v>993800</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>7727</t>
+          <t>7201</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>469</v>
+        <v>332.5</v>
       </c>
       <c r="D23" t="n">
-        <v>279000</v>
+        <v>117948200</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -979,7 +979,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>7740</t>
+          <t>7211</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>908</v>
+        <v>444</v>
       </c>
       <c r="D24" t="n">
-        <v>306200</v>
+        <v>25762000</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1002,7 +1002,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>7908</t>
+          <t>7238</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="D25" t="n">
-        <v>209400</v>
+        <v>11973800</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1025,7 +1025,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>8254</t>
+          <t>7241</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>497</v>
+        <v>841</v>
       </c>
       <c r="D26" t="n">
-        <v>158500</v>
+        <v>477300</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>8410</t>
+          <t>7244</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>274</v>
+        <v>384</v>
       </c>
       <c r="D27" t="n">
-        <v>4497400</v>
+        <v>242300</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1071,7 +1071,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>8604</t>
+          <t>7261</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>978.4000244140625</v>
+        <v>993.9000244140625</v>
       </c>
       <c r="D28" t="n">
-        <v>9218200</v>
+        <v>41889600</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1094,7 +1094,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>9227</t>
+          <t>7291</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1103,16 +1103,223 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>525</v>
+        <v>374</v>
       </c>
       <c r="D29" t="n">
-        <v>107500</v>
+        <v>178800</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>7727</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>466</v>
+      </c>
+      <c r="D30" t="n">
+        <v>357900</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>7740</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>908</v>
+      </c>
+      <c r="D31" t="n">
+        <v>468700</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>7908</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>236</v>
+      </c>
+      <c r="D32" t="n">
+        <v>304300</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>8254</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>472</v>
+      </c>
+      <c r="D33" t="n">
+        <v>271300</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>8410</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>271.7999877929688</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6872800</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>8604</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>982.5999755859375</v>
+      </c>
+      <c r="D35" t="n">
+        <v>14068600</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>8614</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>506</v>
+      </c>
+      <c r="D36" t="n">
+        <v>843300</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>8860</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>679</v>
+      </c>
+      <c r="D37" t="n">
+        <v>126200</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>9227</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>523</v>
+      </c>
+      <c r="D38" t="n">
+        <v>172900</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/23/parabolic.xlsx
+++ b/parabolic/2025/07/23/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D2" t="n">
-        <v>105500</v>
+        <v>151700</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2342</t>
+          <t>2158</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>226</v>
+        <v>644</v>
       </c>
       <c r="D3" t="n">
-        <v>7425500</v>
+        <v>485200</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2342</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="D4" t="n">
-        <v>376700</v>
+        <v>7726000</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3101</t>
+          <t>2440</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>960</v>
+        <v>255</v>
       </c>
       <c r="D5" t="n">
-        <v>393100</v>
+        <v>460200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3137</t>
+          <t>3101</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>477</v>
+        <v>962</v>
       </c>
       <c r="D6" t="n">
-        <v>3978200</v>
+        <v>571100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3787</t>
+          <t>3137</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>559</v>
+        <v>477</v>
       </c>
       <c r="D7" t="n">
-        <v>156400</v>
+        <v>3995800</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4168</t>
+          <t>3559</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>861</v>
+        <v>525</v>
       </c>
       <c r="D8" t="n">
-        <v>243400</v>
+        <v>104700</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4192</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>499</v>
+        <v>633</v>
       </c>
       <c r="D9" t="n">
-        <v>113300</v>
+        <v>371600</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>4288</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>588</v>
+        <v>865</v>
       </c>
       <c r="D10" t="n">
-        <v>257400</v>
+        <v>331300</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>4345</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>838</v>
+        <v>502</v>
       </c>
       <c r="D11" t="n">
-        <v>191500</v>
+        <v>154900</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5202</t>
+          <t>4288</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>490</v>
+        <v>568</v>
       </c>
       <c r="D12" t="n">
-        <v>1667200</v>
+        <v>360500</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>5258</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>438</v>
+        <v>837</v>
       </c>
       <c r="D13" t="n">
-        <v>113000</v>
+        <v>249100</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>5476</t>
+          <t>5202</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>413</v>
+        <v>487</v>
       </c>
       <c r="D14" t="n">
-        <v>122300</v>
+        <v>1978200</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>6118</t>
+          <t>5258</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>917</v>
+        <v>441</v>
       </c>
       <c r="D15" t="n">
-        <v>139300</v>
+        <v>155300</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>6366</t>
+          <t>5476</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="D16" t="n">
-        <v>3138500</v>
+        <v>135600</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>6464</t>
+          <t>6118</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>360</v>
+        <v>917</v>
       </c>
       <c r="D17" t="n">
-        <v>398000</v>
+        <v>260300</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>6471</t>
+          <t>6366</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>718</v>
+        <v>346</v>
       </c>
       <c r="D18" t="n">
-        <v>3549200</v>
+        <v>4076000</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>6472</t>
+          <t>6464</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>253.1000061035156</v>
+        <v>360</v>
       </c>
       <c r="D19" t="n">
-        <v>5221100</v>
+        <v>487000</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>6753</t>
+          <t>6470</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>682.4000244140625</v>
+        <v>587</v>
       </c>
       <c r="D20" t="n">
-        <v>2507100</v>
+        <v>152500</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>6999</t>
+          <t>6471</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>872</v>
+        <v>716.9000244140625</v>
       </c>
       <c r="D21" t="n">
-        <v>309100</v>
+        <v>5316900</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>7180</t>
+          <t>6472</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>781.5999755859375</v>
+        <v>251.1999969482422</v>
       </c>
       <c r="D22" t="n">
-        <v>993800</v>
+        <v>7473000</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>7201</t>
+          <t>6753</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>332.5</v>
+        <v>677.5</v>
       </c>
       <c r="D23" t="n">
-        <v>117948200</v>
+        <v>3797800</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -979,7 +979,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>7211</t>
+          <t>6999</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>444</v>
+        <v>868</v>
       </c>
       <c r="D24" t="n">
-        <v>25762000</v>
+        <v>451600</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1002,7 +1002,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>7238</t>
+          <t>7180</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>108</v>
+        <v>780.2999877929688</v>
       </c>
       <c r="D25" t="n">
-        <v>11973800</v>
+        <v>1757200</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1025,7 +1025,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>7241</t>
+          <t>7201</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>841</v>
+        <v>329.3999938964844</v>
       </c>
       <c r="D26" t="n">
-        <v>477300</v>
+        <v>143577500</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>7244</t>
+          <t>7211</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>384</v>
+        <v>439.8999938964844</v>
       </c>
       <c r="D27" t="n">
-        <v>242300</v>
+        <v>35213600</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1071,7 +1071,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>7261</t>
+          <t>7238</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>993.9000244140625</v>
+        <v>106</v>
       </c>
       <c r="D28" t="n">
-        <v>41889600</v>
+        <v>13013200</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1094,7 +1094,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>7291</t>
+          <t>7241</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>374</v>
+        <v>834</v>
       </c>
       <c r="D29" t="n">
-        <v>178800</v>
+        <v>631600</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1117,7 +1117,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>7727</t>
+          <t>7244</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>466</v>
+        <v>385</v>
       </c>
       <c r="D30" t="n">
-        <v>357900</v>
+        <v>315600</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1140,7 +1140,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>7740</t>
+          <t>7261</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>908</v>
+        <v>994.0999755859375</v>
       </c>
       <c r="D31" t="n">
-        <v>468700</v>
+        <v>49318600</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -1163,7 +1163,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>7908</t>
+          <t>7291</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>236</v>
+        <v>372</v>
       </c>
       <c r="D32" t="n">
-        <v>304300</v>
+        <v>189300</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -1186,7 +1186,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>8254</t>
+          <t>7727</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1195,10 +1195,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D33" t="n">
-        <v>271300</v>
+        <v>388000</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -1209,7 +1209,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>8410</t>
+          <t>7740</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>271.7999877929688</v>
+        <v>907</v>
       </c>
       <c r="D34" t="n">
-        <v>6872800</v>
+        <v>725900</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -1232,7 +1232,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>8604</t>
+          <t>7908</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>982.5999755859375</v>
+        <v>236</v>
       </c>
       <c r="D35" t="n">
-        <v>14068600</v>
+        <v>421600</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -1255,7 +1255,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>8614</t>
+          <t>7984</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1264,10 +1264,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>506</v>
+        <v>922.2999877929688</v>
       </c>
       <c r="D36" t="n">
-        <v>843300</v>
+        <v>1500600</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -1278,7 +1278,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>8860</t>
+          <t>8254</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>679</v>
+        <v>476</v>
       </c>
       <c r="D37" t="n">
-        <v>126200</v>
+        <v>294600</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -1301,7 +1301,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>9227</t>
+          <t>8410</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1310,16 +1310,108 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>523</v>
+        <v>271.7999877929688</v>
       </c>
       <c r="D38" t="n">
-        <v>172900</v>
+        <v>9900900</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>8604</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>983.4000244140625</v>
+      </c>
+      <c r="D39" t="n">
+        <v>21264000</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>8614</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>507</v>
+      </c>
+      <c r="D40" t="n">
+        <v>971100</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>8860</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>678</v>
+      </c>
+      <c r="D41" t="n">
+        <v>152500</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>9227</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>533</v>
+      </c>
+      <c r="D42" t="n">
+        <v>416300</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
